--- a/data/trans_camb/P23_6_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P23_6_R-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>4,52</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>5,8</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-0,24</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>5,09</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 3,86</t>
+          <t>-2,12; 5,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 1,89</t>
+          <t>-3,67; 2,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 3,48</t>
+          <t>0,32; 9,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 4,31</t>
+          <t>-5,51; 3,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 2,27</t>
+          <t>-4,95; 4,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 2,32</t>
+          <t>0,03; 12,25</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-3,25; 3,27</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-3,5; 2,54</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1,44; 9,53</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,92%</t>
+          <t>68,04%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-25,76%</t>
+          <t>-21,16%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-7,74%</t>
+          <t>200,68%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>-16,45%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-3,14%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-6,72%</t>
+          <t>83,51%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1,88%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-4,92%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>106,51%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-56,71; 171,8</t>
+          <t>-77,06; 703,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-73,85; 86,39</t>
+          <t>-100,0; 444,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-50,3; 62,67</t>
+          <t>-19,42; 1078,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-43,28; 83,17</t>
+          <t>-60,38; 85,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-43,73; 50,12</t>
+          <t>-52,95; 111,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-41,82; 52,17</t>
+          <t>-1,47; 280,35</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-49,01; 110,84</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-53,8; 76,13</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>21,3; 282,04</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,14</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,38</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>-1,1</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,22</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,94</t>
+          <t>-1,93</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-0,67</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-1,12</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-0,85</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 3,65</t>
+          <t>-5,59; 11,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 2,23</t>
+          <t>-6,46; 3,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 3,59</t>
+          <t>-4,55; 6,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 2,97</t>
+          <t>-6,06; 3,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 2,21</t>
+          <t>-6,12; 4,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 2,01</t>
+          <t>-6,86; 2,67</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-4,6; 5,05</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-4,76; 2,19</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-4,55; 2,68</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-42,61%</t>
+          <t>-3,22%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-27,39%</t>
+          <t>-20,66%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-5,37%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-8,18%</t>
+          <t>-17,48%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-22,35%</t>
+          <t>-17,22%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-17,22%</t>
+          <t>-30,84%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-11,5%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-19,12%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-14,45%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-92,46; 246,38</t>
+          <t>-88,07; 410,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-75,99; 77,44</t>
+          <t>-79,58; 134,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-59,02; 103,58</t>
+          <t>-63,63; 249,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-64,61; 74,3</t>
+          <t>-71,43; 124,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-61,35; 63,1</t>
+          <t>-71,43; 134,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-59,16; 52,08</t>
+          <t>-75,45; 88,93</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-62,88; 122,97</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-58,38; 63,37</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-59,84; 68,43</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>9,09</t>
+          <t>24,89</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>5,87</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,98</t>
+          <t>26,49</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,88</t>
+          <t>7,15</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>7,53</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>11,33</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>16,0</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2,92</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>19,11</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 33,71</t>
+          <t>-1,73; 61,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,74; 10,25</t>
+          <t>-9,8; 33,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,27; 13,89</t>
+          <t>-5,0; 68,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 12,32</t>
+          <t>1,99; 17,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,17; 21,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 8,43</t>
+          <t>2,94; 27,9</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>3,58; 40,95</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-4,2; 14,35</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>3,73; 45,99</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>151,18%</t>
+          <t>486,36%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-17,08%</t>
+          <t>114,69%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>459,81%</t>
+          <t>517,52%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>298,52%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>200,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>35,27%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>623,41%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>113,69%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>744,68%</t>
         </is>
       </c>
     </row>
@@ -1047,10 +1243,25 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-36,82; 1523,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>5,29</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>3,42</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1,39</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-0,27</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>4,28</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 4,44</t>
+          <t>-0,9; 10,63</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 1,39</t>
+          <t>-3,01; 3,45</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 2,66</t>
+          <t>0,8; 14,77</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 2,86</t>
+          <t>-3,36; 2,83</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 2,68</t>
+          <t>-3,63; 3,16</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 1,42</t>
+          <t>-0,29; 7,31</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-1,52; 5,07</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-2,55; 2,08</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1,17; 9,03</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>7,63%</t>
+          <t>86,56%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-24,69%</t>
+          <t>-2,07%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>138,05%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>-5,1%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>-5,89%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-7,91%</t>
+          <t>57,23%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>27,87%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-5,35%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>85,9%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-48,05; 128,97</t>
+          <t>-28,82; 424,78</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-62,03; 41,71</t>
+          <t>-61,51; 142,7</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-32,72; 53,27</t>
+          <t>0,18; 529,22</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-31,43; 59,12</t>
+          <t>-45,81; 68,57</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-26,09; 56,93</t>
+          <t>-48,58; 83,37</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-34,79; 32,86</t>
+          <t>-4,48; 165,77</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-27,98; 126,82</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-42,24; 54,81</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>16,99; 213,82</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
